--- a/GINX_TimeTable21H.xlsx
+++ b/GINX_TimeTable21H.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/20H/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/21H/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBD349-51C5-4A42-833C-E16473A9D3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C8A21-47FB-5541-AD63-3357AB3776B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="840" windowWidth="38260" windowHeight="26340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="30780" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -328,22 +328,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,11 +375,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18472</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1714500"/>
+    <xdr:ext cx="2870200" cy="2602345"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3">
@@ -393,7 +393,522 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6845300" y="8051800"/>
+          <a:off x="6881091" y="3378199"/>
+          <a:ext cx="2870200" cy="2602345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1021 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Protocoles et concepts de routage</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>208972</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="980210"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3997036" y="3788063"/>
+          <a:ext cx="2870200" cy="980210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1021 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Protocoles et concepts de routage</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2882900" cy="1778000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1102591" y="2056246"/>
+          <a:ext cx="2882900" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1041 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3248 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction à l'administration des systèmes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R.Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18473</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1714500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3984336" y="9081655"/>
           <a:ext cx="2870200" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -431,30 +946,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1021 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1082 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -466,75 +981,94 @@
             <a:t>LA1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Protocoles et concepts de routage</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Engoulou</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Appui et service technique</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>É. Fotsing Sighano</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -542,18 +1076,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1701800"/>
+    <xdr:ext cx="2870200" cy="1714500"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ZoneTexte 4">
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,343 +1095,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="2032000"/>
-          <a:ext cx="2870200" cy="1701800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1021 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Protocoles et concepts de routage</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Engoulou</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2882900" cy="1778000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9791700" y="5486400"/>
-          <a:ext cx="2882900" cy="1778000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> INF1041 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction à l'administration des systèmes</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R.Engoulou</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1714500"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ZoneTexte 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3975100" y="8051800"/>
+          <a:off x="6871855" y="9075881"/>
           <a:ext cx="2870200" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -935,76 +1133,87 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1082 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1082 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1016,18 +1225,18 @@
             <a:t>Appui et service technique</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1038,17 +1247,7 @@
             </a:rPr>
             <a:t>É. Fotsing Sighano</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1057,17 +1256,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>47336</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184726</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1714500"/>
+    <xdr:ext cx="2815936" cy="2616200"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ZoneTexte 7">
+        <xdr:cNvPr id="11" name="ZoneTexte 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,8 +1274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="8077200"/>
-          <a:ext cx="2870200" cy="1714500"/>
+          <a:off x="9791700" y="1131453"/>
+          <a:ext cx="2815936" cy="2616200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,30 +1312,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1082 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ENG1011 - 14</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1148,73 +1347,84 @@
             <a:t>TH1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Appui et service technique</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>É. Fotsing Sighano</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Professional Communication in English</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>T. Lindholm</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -1224,134 +1434,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2921000" cy="2616200"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="ZoneTexte 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="2019300"/>
-          <a:ext cx="2921000" cy="2616200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ENG1011 - 10</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3239 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Professional Communication in English</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39255</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
@@ -1367,7 +1453,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="5486400"/>
+          <a:off x="9783619" y="4700154"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1405,30 +1491,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1042 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1042 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1440,53 +1526,75 @@
             <a:t>LA1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3248</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SU-SU-SED - EASC</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1497,12 +1605,30 @@
             </a:rPr>
             <a:t>Introduction à la programmation</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P. Paiement</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1510,9 +1636,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18473</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2908300" cy="1727200"/>
@@ -1529,7 +1655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9804400" y="2032000"/>
+          <a:off x="6876473" y="6882245"/>
           <a:ext cx="2908300" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1678,12 +1804,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35792</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2882900" cy="1727200"/>
+    <xdr:ext cx="2815936" cy="1752600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="ZoneTexte 13">
@@ -1697,7 +1823,209 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="2044700"/>
+          <a:off x="4007428" y="5784273"/>
+          <a:ext cx="2815936" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1043 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SU-SU-SED - EASC</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction aux bases de données</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P. Paiement</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2309</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2882900" cy="1727200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1087582" y="6456218"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1735,21 +2063,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1043 - 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1042 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1760,47 +2097,108 @@
             </a:rPr>
             <a:t>LA1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction aux bases de données</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A. Manfo Zanguim</a:t>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SU-SU-SED - EASC</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction à la programmation</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P. Paiement</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -1810,18 +2208,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24246</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3465</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ZoneTexte 14">
+        <xdr:cNvPr id="16" name="ZoneTexte 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +2227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="5499100"/>
+          <a:off x="12654973" y="2047010"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1867,30 +2265,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1042 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1043 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1902,176 +2300,75 @@
             <a:t>LA1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3248</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction à la programmation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2882900" cy="1727200"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="ZoneTexte 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1092200" y="3784600"/>
-          <a:ext cx="2882900" cy="1727200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1043 - 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SU-SU-SED - EASC</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2082,19 +2379,28 @@
             </a:rPr>
             <a:t>Introduction aux bases de données</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A. Manfo Zanguim</a:t>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P. Paiement</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -2109,12 +2415,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22128</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2846918" cy="2584450"/>
+    <xdr:ext cx="2846918" cy="956541"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3">
@@ -2128,8 +2434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3972983" y="2012950"/>
-          <a:ext cx="2846918" cy="2584450"/>
+          <a:off x="6880128" y="6859732"/>
+          <a:ext cx="2846918" cy="956541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2175,7 +2481,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1086 - 2</a:t>
+            <a:t>INF1086 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2221,7 +2527,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215</a:t>
+            <a:t>TO-TO-SED</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2269,11 +2575,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13854</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>208972</xdr:rowOff>
+      <xdr:colOff>36946</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35790</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2882900" cy="2540000"/>
+    <xdr:ext cx="2814781" cy="2540000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="ZoneTexte 9">
@@ -2287,8 +2593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6871854" y="8175336"/>
-          <a:ext cx="2882900" cy="2540000"/>
+          <a:off x="6894946" y="2079335"/>
+          <a:ext cx="2814781" cy="2540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,7 +2640,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1088 - 2</a:t>
+            <a:t>INF1088 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2357,7 +2663,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TH1</a:t>
+            <a:t>LA1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2380,21 +2686,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3215</a:t>
-          </a:r>
-          <a:br>
+            <a:t>SU-SU-SED - EASC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2404,8 +2700,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:r>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2415,6 +2714,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Gestion de projets informatiques</a:t>
           </a:r>
         </a:p>
@@ -2429,7 +2739,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>G. Shiri</a:t>
+            <a:t>G. Denis</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2438,12 +2748,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52531</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16355</xdr:rowOff>
+      <xdr:rowOff>16354</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2863851" cy="1715464"/>
+    <xdr:ext cx="2833834" cy="1715464"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="ZoneTexte 12">
@@ -2457,8 +2767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864349" y="2937355"/>
-          <a:ext cx="2863851" cy="1715464"/>
+          <a:off x="4024167" y="2937354"/>
+          <a:ext cx="2833834" cy="1715464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2550,20 +2860,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3215</a:t>
-          </a:r>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
@@ -2609,9 +2909,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14816</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14817</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>17991</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2531534"/>
@@ -2628,7 +2928,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1094316" y="8082491"/>
+          <a:off x="3986453" y="6010082"/>
           <a:ext cx="2870200" cy="2531534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2665,17 +2965,34 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1090 - 2</a:t>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1090 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2721,8 +3038,58 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215</a:t>
-          </a:r>
+            <a:t>SU-SU-SED - EASC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -2758,7 +3125,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>M. Nair</a:t>
+            <a:t>F. Gagnon</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2767,12 +3134,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27708</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>192616</xdr:rowOff>
+      <xdr:rowOff>204161</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2908300" cy="2588683"/>
+    <xdr:ext cx="2824019" cy="961930"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="ZoneTexte 15">
@@ -2786,8 +3153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9779000" y="5450416"/>
-          <a:ext cx="2908300" cy="2588683"/>
+          <a:off x="6885708" y="5538161"/>
+          <a:ext cx="2824019" cy="961930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2896,7 +3263,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO-TO-SED</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2963,12 +3330,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2897717" cy="2597150"/>
+    <xdr:ext cx="1455688" cy="1730086"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="ZoneTexte 16">
@@ -2982,8 +3349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3972983" y="5467350"/>
-          <a:ext cx="2897717" cy="2597150"/>
+          <a:off x="9754948" y="7737187"/>
+          <a:ext cx="1455688" cy="1730086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3043,22 +3410,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215</a:t>
-          </a:r>
+            <a:t>LA2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3073,6 +3451,9 @@
             </a:rPr>
             <a:t>Sécurité des réseaux I</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3086,12 +3467,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15009</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>201082</xdr:rowOff>
+      <xdr:rowOff>212626</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2895600" cy="2605618"/>
+    <xdr:ext cx="1451263" cy="1784738"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="ZoneTexte 20">
@@ -3105,8 +3486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883400" y="5458882"/>
-          <a:ext cx="2895600" cy="2605618"/>
+          <a:off x="9759373" y="5546626"/>
+          <a:ext cx="1451263" cy="1784738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,22 +3547,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
+            <a:t>LA2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3196,6 +3588,17 @@
             </a:rPr>
             <a:t>Technologies réseautiques avancés</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3275,65 +3678,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2466945</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>162060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2477025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>162420</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Encre 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9315420" y="2981460"/>
-            <a:ext cx="10080" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Encre 6"/>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9303540" y="2969580"/>
-              <a:ext cx="33840" cy="24120"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3341,7 +3685,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>17991</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2531534"/>
+    <xdr:ext cx="2870200" cy="2498919"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="ZoneTexte 13">
@@ -3355,8 +3699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1094316" y="2037291"/>
-          <a:ext cx="2870200" cy="2531534"/>
+          <a:off x="1100089" y="2061536"/>
+          <a:ext cx="2870200" cy="2498919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3412,11 +3756,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>188382</xdr:rowOff>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15202</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2863851" cy="1729317"/>
+    <xdr:ext cx="1447223" cy="1693526"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="ZoneTexte 19">
@@ -3430,8 +3774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9747249" y="1991782"/>
-          <a:ext cx="2863851" cy="1729317"/>
+          <a:off x="9763412" y="2936202"/>
+          <a:ext cx="1447223" cy="1693526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,9 +3844,1188 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>LA2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3215</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>d'infrastructure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>informatique 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48491</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147973</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2837873" cy="971937"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164C15E2-EAA6-6044-B3D0-C36D9CAF23B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133764" y="4604518"/>
+          <a:ext cx="2837873" cy="971937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1075 - 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-          <a:br>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Technologies réseautiques avancés</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35982</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>191076</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2850382" cy="963469"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736F8D4F-0D11-1A4F-938A-9AD92E7C75C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1121255" y="5963803"/>
+          <a:ext cx="2850382" cy="963469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1076 - 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sécurité des réseaux I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11544</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1420091" cy="1731819"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="ZoneTexte 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8F2534-D021-0442-8FB4-7D520F65B853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12642273" y="2055089"/>
+          <a:ext cx="1420091" cy="1731819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1089 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3215</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Programmation de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> systèmes</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12893</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>188768</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1464925" cy="1797050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F05436-9542-4F44-8D39-F1BB917A012C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12643620" y="6838950"/>
+          <a:ext cx="1464925" cy="1797050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1086 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration de bases de données</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1489364</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5965</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1373908" cy="1693526"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2609E6-74DB-584E-B782-A2B66ABB47B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11233728" y="2926965"/>
+          <a:ext cx="1373908" cy="1693526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1075 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Technologies réseautiques avancés</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1446838</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>191078</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1439526" cy="1797050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835B11AC-5868-3941-A4E0-1EACDC46294C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14077565" y="4647623"/>
+          <a:ext cx="1439526" cy="1797050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1086 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration de bases de données</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1509566</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18662</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1353706" cy="1759337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAE836A-03F0-6B4F-8DBD-1FEBE1F9BF77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11253930" y="5572026"/>
+          <a:ext cx="1353706" cy="1759337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3512,8 +5035,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:r>
+            <a:t>INF1087 - 2</a:t>
+          </a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3523,21 +5047,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3215</a:t>
-          </a:r>
-          <a:br>
+          </a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3547,8 +5058,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:r>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3558,6 +5070,42 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3215</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Administration d'infrastructure informatique 1</a:t>
           </a:r>
         </a:p>
@@ -3575,6 +5123,386 @@
             <a:t>B. Robert</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1484744</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>194924</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1366983" cy="1721621"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="ZoneTexte 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EE65C8-81B3-2C4B-B735-002F04BDA0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11229108" y="7722560"/>
+          <a:ext cx="1366983" cy="1721621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1089 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3215</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Programmation de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> systèmes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1444530</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15588</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1455688" cy="1730086"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="ZoneTexte 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAD54AC-6655-0B4D-8ED8-52C88FAB90BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14075257" y="2059133"/>
+          <a:ext cx="1455688" cy="1730086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1076 - 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sécurité des réseaux I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3659,42 +5587,6 @@
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="1920" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="1080" units="cm"/>
-          <inkml:channel name="T" type="integer" max="2.14748E9" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="37.64706" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="37.63066" units="1/cm"/>
-          <inkml:channelProperty channel="T" name="resolution" value="1" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2019-01-14T18:24:02.706"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
-      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{6A1A004C-6DB6-43E2-89BA-1BE9C97780E5}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="25876,8281 25903,8281 25903,8296 25876,8296" shapeName="Other"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 0,'27'0'31</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -4023,7 +5915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4655,6 +6547,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4662,12 +6560,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5311,12 +7203,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5324,6 +7210,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
